--- a/FireMeta_Rproj/inputs/Studies/Gerla_Galloway_1998/Gerla_Galloway_1998.xlsx
+++ b/FireMeta_Rproj/inputs/Studies/Gerla_Galloway_1998/Gerla_Galloway_1998.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Gerla_Galloway_1998/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies/Gerla_Galloway_1998/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A1FE1-C77A-9640-9834-EA4577779A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF38FD-9440-1B45-9828-30B0587FD2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="38">
   <si>
     <t>Study_ID</t>
   </si>
@@ -142,6 +142,15 @@
   <si>
     <t>mg_N_L</t>
   </si>
+  <si>
+    <t>Area_watershed</t>
+  </si>
+  <si>
+    <t>Area_unit</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
 </sst>
 </file>
 
@@ -182,12 +191,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,25 +509,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7C6567-21D2-984F-88AC-EA2A27125A57}">
-  <dimension ref="A1:V573"/>
+  <dimension ref="A1:X123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124:XFD1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,58 +544,64 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -604,38 +617,44 @@
       <c r="E2">
         <v>-110.05</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>4946</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>32577</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>3.4706954520000002</v>
       </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -651,35 +670,41 @@
       <c r="E3">
         <v>-110.05</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>4946</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>32603</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>3.117393082</v>
       </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -695,35 +720,41 @@
       <c r="E4">
         <v>-110.05</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>4946</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>32625</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>1.4794523310000001</v>
       </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -739,35 +770,41 @@
       <c r="E5">
         <v>-110.05</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>4946</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>32637</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>8.4065476829999994</v>
       </c>
-      <c r="R5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -783,35 +820,41 @@
       <c r="E6">
         <v>-110.05</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>4946</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>32646</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.38758267499999999</v>
       </c>
-      <c r="R6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -827,35 +870,41 @@
       <c r="E7">
         <v>-110.05</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>4946</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>32659</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>21.302339589999999</v>
       </c>
-      <c r="R7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -871,35 +920,41 @@
       <c r="E8">
         <v>-110.05</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>4946</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>32668</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.38180363299999998</v>
       </c>
-      <c r="R8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -915,35 +970,41 @@
       <c r="E9">
         <v>-110.05</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>4946</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>32681</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>29.664362570000002</v>
       </c>
-      <c r="R9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -959,35 +1020,41 @@
       <c r="E10">
         <v>-110.05</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>4946</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>32688</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>35.19723467</v>
       </c>
-      <c r="R10" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1003,35 +1070,41 @@
       <c r="E11">
         <v>-110.05</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>4946</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>32701</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>5.5510153129999997</v>
       </c>
-      <c r="R11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1047,35 +1120,41 @@
       <c r="E12">
         <v>-110.05</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>4946</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>32710</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>1.409645359</v>
       </c>
-      <c r="R12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1091,35 +1170,41 @@
       <c r="E13">
         <v>-110.05</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>4946</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>32736</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.93296071300000005</v>
       </c>
-      <c r="R13" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1135,35 +1220,41 @@
       <c r="E14">
         <v>-110.05</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>4946</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>32760</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>1.3412967119999999</v>
       </c>
-      <c r="R14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T14" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1179,35 +1270,41 @@
       <c r="E15">
         <v>-110.05</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>4946</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>32785</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>3.8559785739999999</v>
       </c>
-      <c r="R15" t="s">
-        <v>34</v>
-      </c>
-      <c r="U15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1223,35 +1320,41 @@
       <c r="E16">
         <v>-110.05</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>4946</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>32969</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>0.19476395099999999</v>
       </c>
-      <c r="R16" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1267,35 +1370,41 @@
       <c r="E17">
         <v>-110.05</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>4946</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>32991</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>2</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>0.38172519300000002</v>
       </c>
-      <c r="R17" t="s">
-        <v>34</v>
-      </c>
-      <c r="U17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T17" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1311,35 +1420,41 @@
       <c r="E18">
         <v>-110.05</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>4946</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="2">
+      <c r="K18" s="2">
         <v>33001</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>2</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>1.2398759109999999</v>
       </c>
-      <c r="R18" t="s">
-        <v>34</v>
-      </c>
-      <c r="U18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T18" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1355,35 +1470,41 @@
       <c r="E19">
         <v>-110.05</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>4946</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>33027</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.29749595299999998</v>
       </c>
-      <c r="R19" t="s">
-        <v>34</v>
-      </c>
-      <c r="U19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1399,35 +1520,41 @@
       <c r="E20">
         <v>-110.05</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>4946</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
         <v>26</v>
       </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>33037</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>2</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>0.36629613900000002</v>
       </c>
-      <c r="R20" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1443,35 +1570,41 @@
       <c r="E21">
         <v>-110.05</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>4946</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>33047</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>2</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>42.226502480000001</v>
       </c>
-      <c r="R21" t="s">
-        <v>34</v>
-      </c>
-      <c r="U21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1487,35 +1620,41 @@
       <c r="E22">
         <v>-110.05</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>4946</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
         <v>26</v>
       </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="2">
+      <c r="K22" s="2">
         <v>33059</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>2</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>1.398242054</v>
       </c>
-      <c r="R22" t="s">
-        <v>34</v>
-      </c>
-      <c r="U22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1531,35 +1670,41 @@
       <c r="E23">
         <v>-110.05</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>4946</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="2">
+      <c r="K23" s="2">
         <v>33082</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>2</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>4.0308633189999998</v>
       </c>
-      <c r="R23" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1575,35 +1720,41 @@
       <c r="E24">
         <v>-110.05</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>4946</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="2">
+      <c r="K24" s="2">
         <v>33102</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>2</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>1.0692531679999999</v>
       </c>
-      <c r="R24" t="s">
-        <v>34</v>
-      </c>
-      <c r="U24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1619,35 +1770,41 @@
       <c r="E25">
         <v>-110.05</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>4946</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
         <v>26</v>
       </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>33123</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>2</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0.44848178700000002</v>
       </c>
-      <c r="R25" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1663,35 +1820,41 @@
       <c r="E26">
         <v>-110.05</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <v>4946</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="2">
+      <c r="K26" s="2">
         <v>33146</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>2</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>0.73568648800000003</v>
       </c>
-      <c r="R26" t="s">
-        <v>34</v>
-      </c>
-      <c r="U26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1707,35 +1870,41 @@
       <c r="E27">
         <v>-110.05</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <v>4946</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="2">
+      <c r="K27" s="2">
         <v>33311</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>3.842425617</v>
       </c>
-      <c r="R27" t="s">
-        <v>34</v>
-      </c>
-      <c r="U27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T27" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1751,35 +1920,41 @@
       <c r="E28">
         <v>-110.05</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28">
+        <v>4946</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
         <v>26</v>
       </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="2">
+      <c r="K28" s="2">
         <v>33335</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>0.65651117299999995</v>
       </c>
-      <c r="R28" t="s">
-        <v>34</v>
-      </c>
-      <c r="U28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1795,35 +1970,41 @@
       <c r="E29">
         <v>-110.05</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29">
+        <v>4946</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
         <v>26</v>
       </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="2">
+      <c r="K29" s="2">
         <v>33355</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>0.48005712</v>
       </c>
-      <c r="R29" t="s">
-        <v>34</v>
-      </c>
-      <c r="U29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+      <c r="W29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1839,35 +2020,41 @@
       <c r="E30">
         <v>-110.05</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>4946</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>33370</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>3</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>0.28295892700000003</v>
       </c>
-      <c r="R30" t="s">
-        <v>34</v>
-      </c>
-      <c r="U30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="W30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1883,35 +2070,41 @@
       <c r="E31">
         <v>-110.05</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>4946</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
         <v>26</v>
       </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="2">
+      <c r="K31" s="2">
         <v>33382</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>4.0836323930000002</v>
       </c>
-      <c r="R31" t="s">
-        <v>34</v>
-      </c>
-      <c r="U31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+      <c r="W31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1927,35 +2120,41 @@
       <c r="E32">
         <v>-110.05</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>4946</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
         <v>26</v>
       </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="2">
+      <c r="K32" s="2">
         <v>33391</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>3</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>1.4556106019999999</v>
       </c>
-      <c r="R32" t="s">
-        <v>34</v>
-      </c>
-      <c r="U32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T32" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1971,35 +2170,41 @@
       <c r="E33">
         <v>-110.05</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33">
+        <v>4946</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
         <v>26</v>
       </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>33401</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>3</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>0.92132429599999999</v>
       </c>
-      <c r="R33" t="s">
-        <v>34</v>
-      </c>
-      <c r="U33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2015,35 +2220,41 @@
       <c r="E34">
         <v>-110.05</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34">
+        <v>4946</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
         <v>26</v>
       </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="2">
+      <c r="K34" s="2">
         <v>33411</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>3</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>8.5466647239999993</v>
       </c>
-      <c r="R34" t="s">
-        <v>34</v>
-      </c>
-      <c r="U34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T34" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2059,35 +2270,41 @@
       <c r="E35">
         <v>-110.05</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35">
+        <v>4946</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
         <v>26</v>
       </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="2">
+      <c r="K35" s="2">
         <v>33423</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>3</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>0.37858459700000002</v>
       </c>
-      <c r="R35" t="s">
-        <v>34</v>
-      </c>
-      <c r="U35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T35" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2103,35 +2320,41 @@
       <c r="E36">
         <v>-110.05</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36">
+        <v>4946</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
         <v>26</v>
       </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="2">
+      <c r="K36" s="2">
         <v>33438</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>3</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>0.720976214</v>
       </c>
-      <c r="R36" t="s">
-        <v>34</v>
-      </c>
-      <c r="U36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T36" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2147,35 +2370,41 @@
       <c r="E37">
         <v>-110.05</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37">
+        <v>4946</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>33458</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>0.78604175099999996</v>
       </c>
-      <c r="R37" t="s">
-        <v>34</v>
-      </c>
-      <c r="U37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T37" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -2191,35 +2420,41 @@
       <c r="E38">
         <v>-110.05</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38">
+        <v>4946</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
         <v>26</v>
       </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>33478</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>0.22235698800000001</v>
       </c>
-      <c r="R38" t="s">
-        <v>34</v>
-      </c>
-      <c r="U38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T38" t="s">
+        <v>34</v>
+      </c>
+      <c r="W38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2235,35 +2470,41 @@
       <c r="E39">
         <v>-110.05</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39">
+        <v>4946</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
         <v>26</v>
       </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K39" s="2">
         <v>33683</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>4</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>0.94271219900000003</v>
       </c>
-      <c r="R39" t="s">
-        <v>34</v>
-      </c>
-      <c r="U39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T39" t="s">
+        <v>34</v>
+      </c>
+      <c r="W39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2279,35 +2520,41 @@
       <c r="E40">
         <v>-110.05</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40">
+        <v>4946</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
         <v>26</v>
       </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>33702</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>4</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>1.8927665520000001</v>
       </c>
-      <c r="R40" t="s">
-        <v>34</v>
-      </c>
-      <c r="U40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T40" t="s">
+        <v>34</v>
+      </c>
+      <c r="W40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -2323,35 +2570,41 @@
       <c r="E41">
         <v>-110.05</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41">
+        <v>4946</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
         <v>26</v>
       </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="2">
+      <c r="K41" s="2">
         <v>33724</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>4</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <v>0.374797408</v>
       </c>
-      <c r="R41" t="s">
-        <v>34</v>
-      </c>
-      <c r="U41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T41" t="s">
+        <v>34</v>
+      </c>
+      <c r="W41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -2367,35 +2620,41 @@
       <c r="E42">
         <v>-110.05</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42">
+        <v>4946</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
         <v>26</v>
       </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="2">
+      <c r="K42" s="2">
         <v>33734</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <v>6.6190606919999997</v>
       </c>
-      <c r="R42" t="s">
-        <v>34</v>
-      </c>
-      <c r="U42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T42" t="s">
+        <v>34</v>
+      </c>
+      <c r="W42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -2411,35 +2670,41 @@
       <c r="E43">
         <v>-110.05</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43">
+        <v>4946</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
         <v>26</v>
       </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="2">
+      <c r="K43" s="2">
         <v>33745</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>1.1988288519999999</v>
       </c>
-      <c r="R43" t="s">
-        <v>34</v>
-      </c>
-      <c r="U43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T43" t="s">
+        <v>34</v>
+      </c>
+      <c r="W43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -2455,35 +2720,41 @@
       <c r="E44">
         <v>-110.05</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44">
+        <v>4946</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
         <v>26</v>
       </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="2">
+      <c r="K44" s="2">
         <v>33755</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>4</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>1.677887294</v>
       </c>
-      <c r="R44" t="s">
-        <v>34</v>
-      </c>
-      <c r="U44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T44" t="s">
+        <v>34</v>
+      </c>
+      <c r="W44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -2499,35 +2770,41 @@
       <c r="E45">
         <v>-110.05</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45">
+        <v>4946</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
         <v>26</v>
       </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="2">
+      <c r="K45" s="2">
         <v>33766</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>4</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <v>0.373771931</v>
       </c>
-      <c r="R45" t="s">
-        <v>34</v>
-      </c>
-      <c r="U45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T45" t="s">
+        <v>34</v>
+      </c>
+      <c r="W45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -2543,35 +2820,41 @@
       <c r="E46">
         <v>-110.05</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46">
+        <v>4946</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
         <v>26</v>
       </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="2">
+      <c r="K46" s="2">
         <v>33776</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>4</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <v>0.36110815099999999</v>
       </c>
-      <c r="R46" t="s">
-        <v>34</v>
-      </c>
-      <c r="U46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T46" t="s">
+        <v>34</v>
+      </c>
+      <c r="W46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -2587,35 +2870,41 @@
       <c r="E47">
         <v>-110.05</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47">
+        <v>4946</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
         <v>26</v>
       </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="2">
+      <c r="K47" s="2">
         <v>33786</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>4</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <v>0.35515067299999997</v>
       </c>
-      <c r="R47" t="s">
-        <v>34</v>
-      </c>
-      <c r="U47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T47" t="s">
+        <v>34</v>
+      </c>
+      <c r="W47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2631,35 +2920,41 @@
       <c r="E48">
         <v>-110.05</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48">
+        <v>4946</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
         <v>26</v>
       </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="2">
+      <c r="K48" s="2">
         <v>33809</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>4</v>
       </c>
-      <c r="Q48">
+      <c r="S48">
         <v>0.49607970699999998</v>
       </c>
-      <c r="R48" t="s">
-        <v>34</v>
-      </c>
-      <c r="U48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T48" t="s">
+        <v>34</v>
+      </c>
+      <c r="W48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -2675,35 +2970,41 @@
       <c r="E49">
         <v>-110.05</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49">
+        <v>4946</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
         <v>26</v>
       </c>
-      <c r="G49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="2">
+      <c r="K49" s="2">
         <v>33831</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>4</v>
       </c>
-      <c r="Q49">
+      <c r="S49">
         <v>0.71377727400000002</v>
       </c>
-      <c r="R49" t="s">
-        <v>34</v>
-      </c>
-      <c r="U49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T49" t="s">
+        <v>34</v>
+      </c>
+      <c r="W49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2719,35 +3020,41 @@
       <c r="E50">
         <v>-110.05</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50">
+        <v>4946</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
         <v>26</v>
       </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="2">
+      <c r="K50" s="2">
         <v>33849</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>4</v>
       </c>
-      <c r="Q50">
+      <c r="S50">
         <v>1.3858144729999999</v>
       </c>
-      <c r="R50" t="s">
-        <v>34</v>
-      </c>
-      <c r="U50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T50" t="s">
+        <v>34</v>
+      </c>
+      <c r="W50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -2763,35 +3070,41 @@
       <c r="E51">
         <v>-110.05</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51">
+        <v>4946</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
         <v>26</v>
       </c>
-      <c r="G51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
         <v>29</v>
       </c>
-      <c r="I51" s="2">
+      <c r="K51" s="2">
         <v>34047</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>5</v>
       </c>
-      <c r="Q51">
+      <c r="S51">
         <v>3.4840843750000001</v>
       </c>
-      <c r="R51" t="s">
-        <v>34</v>
-      </c>
-      <c r="U51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T51" t="s">
+        <v>34</v>
+      </c>
+      <c r="W51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2807,35 +3120,41 @@
       <c r="E52">
         <v>-110.05</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52">
+        <v>4946</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
         <v>26</v>
       </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
         <v>29</v>
       </c>
-      <c r="I52" s="2">
+      <c r="K52" s="2">
         <v>34075</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>5</v>
       </c>
-      <c r="Q52">
+      <c r="S52">
         <v>1.148175167</v>
       </c>
-      <c r="R52" t="s">
-        <v>34</v>
-      </c>
-      <c r="U52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T52" t="s">
+        <v>34</v>
+      </c>
+      <c r="W52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -2851,35 +3170,41 @@
       <c r="E53">
         <v>-110.05</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53">
+        <v>4946</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
         <v>26</v>
       </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="2">
+      <c r="K53" s="2">
         <v>34096</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>5</v>
       </c>
-      <c r="Q53">
+      <c r="S53">
         <v>5.8153717000000001E-2</v>
       </c>
-      <c r="R53" t="s">
-        <v>34</v>
-      </c>
-      <c r="U53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T53" t="s">
+        <v>34</v>
+      </c>
+      <c r="W53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -2895,35 +3220,41 @@
       <c r="E54">
         <v>-110.05</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54">
+        <v>4946</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
         <v>26</v>
       </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="2">
+      <c r="K54" s="2">
         <v>34109</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>5</v>
       </c>
-      <c r="Q54">
+      <c r="S54">
         <v>2.208706947</v>
       </c>
-      <c r="R54" t="s">
-        <v>34</v>
-      </c>
-      <c r="U54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T54" t="s">
+        <v>34</v>
+      </c>
+      <c r="W54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -2939,35 +3270,41 @@
       <c r="E55">
         <v>-110.05</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55">
+        <v>4946</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
         <v>26</v>
       </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="2">
+      <c r="K55" s="2">
         <v>34117</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>5</v>
       </c>
-      <c r="Q55">
+      <c r="S55">
         <v>1.708161007</v>
       </c>
-      <c r="R55" t="s">
-        <v>34</v>
-      </c>
-      <c r="U55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T55" t="s">
+        <v>34</v>
+      </c>
+      <c r="W55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -2983,35 +3320,41 @@
       <c r="E56">
         <v>-110.05</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56">
+        <v>4946</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
         <v>26</v>
       </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="2">
+      <c r="K56" s="2">
         <v>34129</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>5</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <v>0.71098421700000003</v>
       </c>
-      <c r="R56" t="s">
-        <v>34</v>
-      </c>
-      <c r="U56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T56" t="s">
+        <v>34</v>
+      </c>
+      <c r="W56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -3027,35 +3370,41 @@
       <c r="E57">
         <v>-110.05</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57">
+        <v>4946</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
         <v>26</v>
       </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s">
         <v>29</v>
       </c>
-      <c r="I57" s="2">
+      <c r="K57" s="2">
         <v>34140</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>5</v>
       </c>
-      <c r="Q57">
+      <c r="S57">
         <v>0.41128083700000001</v>
       </c>
-      <c r="R57" t="s">
-        <v>34</v>
-      </c>
-      <c r="U57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T57" t="s">
+        <v>34</v>
+      </c>
+      <c r="W57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -3071,35 +3420,41 @@
       <c r="E58">
         <v>-110.05</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58">
+        <v>4946</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
         <v>26</v>
       </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="2">
+      <c r="K58" s="2">
         <v>34147</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>5</v>
       </c>
-      <c r="Q58">
+      <c r="S58">
         <v>0.40254038599999997</v>
       </c>
-      <c r="R58" t="s">
-        <v>34</v>
-      </c>
-      <c r="U58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -3115,35 +3470,41 @@
       <c r="E59">
         <v>-110.05</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59">
+        <v>4946</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
         <v>26</v>
       </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
         <v>29</v>
       </c>
-      <c r="I59" s="2">
+      <c r="K59" s="2">
         <v>34173</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>5</v>
       </c>
-      <c r="Q59">
+      <c r="S59">
         <v>0.43974206999999998</v>
       </c>
-      <c r="R59" t="s">
-        <v>34</v>
-      </c>
-      <c r="U59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T59" t="s">
+        <v>34</v>
+      </c>
+      <c r="W59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -3159,35 +3520,41 @@
       <c r="E60">
         <v>-110.05</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60">
+        <v>4946</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
         <v>26</v>
       </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
         <v>29</v>
       </c>
-      <c r="I60" s="2">
+      <c r="K60" s="2">
         <v>34196</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>5</v>
       </c>
-      <c r="Q60">
+      <c r="S60">
         <v>0.29302128300000002</v>
       </c>
-      <c r="R60" t="s">
-        <v>34</v>
-      </c>
-      <c r="U60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T60" t="s">
+        <v>34</v>
+      </c>
+      <c r="W60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3203,35 +3570,41 @@
       <c r="E61">
         <v>-110.05</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61">
+        <v>4946</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
         <v>26</v>
       </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="2">
+      <c r="K61" s="2">
         <v>34214</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>5</v>
       </c>
-      <c r="Q61">
+      <c r="S61">
         <v>1.1930829789999999</v>
       </c>
-      <c r="R61" t="s">
-        <v>34</v>
-      </c>
-      <c r="U61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T61" t="s">
+        <v>34</v>
+      </c>
+      <c r="W61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -3247,35 +3620,41 @@
       <c r="E62">
         <v>-110.05</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62">
+        <v>4946</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
         <v>26</v>
       </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="2">
+      <c r="K62" s="2">
         <v>34241</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>5</v>
       </c>
-      <c r="Q62">
+      <c r="S62">
         <v>1.0856387869999999</v>
       </c>
-      <c r="R62" t="s">
-        <v>34</v>
-      </c>
-      <c r="U62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T62" t="s">
+        <v>34</v>
+      </c>
+      <c r="W62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -3291,35 +3670,41 @@
       <c r="E63">
         <v>-110.069</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63">
+        <v>6423</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
         <v>23</v>
       </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
         <v>30</v>
       </c>
-      <c r="I63" s="2">
+      <c r="K63" s="2">
         <v>32576</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>1</v>
       </c>
-      <c r="Q63">
+      <c r="S63">
         <v>2.1894391180000001</v>
       </c>
-      <c r="R63" t="s">
-        <v>34</v>
-      </c>
-      <c r="U63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T63" t="s">
+        <v>34</v>
+      </c>
+      <c r="W63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -3335,35 +3720,41 @@
       <c r="E64">
         <v>-110.069</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64">
+        <v>6423</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
         <v>23</v>
       </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
         <v>30</v>
       </c>
-      <c r="I64" s="2">
+      <c r="K64" s="2">
         <v>32603</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>1</v>
       </c>
-      <c r="Q64">
+      <c r="S64">
         <v>2.0760260019999999</v>
       </c>
-      <c r="R64" t="s">
-        <v>34</v>
-      </c>
-      <c r="U64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T64" t="s">
+        <v>34</v>
+      </c>
+      <c r="W64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -3379,35 +3770,41 @@
       <c r="E65">
         <v>-110.069</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65">
+        <v>6423</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
         <v>23</v>
       </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="2">
+      <c r="K65" s="2">
         <v>32626</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>1</v>
       </c>
-      <c r="Q65">
+      <c r="S65">
         <v>2.8000232450000002</v>
       </c>
-      <c r="R65" t="s">
-        <v>34</v>
-      </c>
-      <c r="U65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T65" t="s">
+        <v>34</v>
+      </c>
+      <c r="W65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -3423,35 +3820,41 @@
       <c r="E66">
         <v>-110.069</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66">
+        <v>6423</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
         <v>23</v>
       </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="2">
+      <c r="K66" s="2">
         <v>32637</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>1</v>
       </c>
-      <c r="Q66">
+      <c r="S66">
         <v>1.3899981219999999</v>
       </c>
-      <c r="R66" t="s">
-        <v>34</v>
-      </c>
-      <c r="U66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T66" t="s">
+        <v>34</v>
+      </c>
+      <c r="W66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -3467,35 +3870,41 @@
       <c r="E67">
         <v>-110.069</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67">
+        <v>6423</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
         <v>23</v>
       </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="2">
+      <c r="K67" s="2">
         <v>32647</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>1</v>
       </c>
-      <c r="Q67">
+      <c r="S67">
         <v>1.332723079</v>
       </c>
-      <c r="R67" t="s">
-        <v>34</v>
-      </c>
-      <c r="U67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T67" t="s">
+        <v>34</v>
+      </c>
+      <c r="W67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -3511,35 +3920,41 @@
       <c r="E68">
         <v>-110.069</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68">
+        <v>6423</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
         <v>23</v>
       </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="2">
+      <c r="K68" s="2">
         <v>32660</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>1</v>
       </c>
-      <c r="Q68">
+      <c r="S68">
         <v>0.65825491199999997</v>
       </c>
-      <c r="R68" t="s">
-        <v>34</v>
-      </c>
-      <c r="U68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T68" t="s">
+        <v>34</v>
+      </c>
+      <c r="W68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -3555,35 +3970,41 @@
       <c r="E69">
         <v>-110.069</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69">
+        <v>6423</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
         <v>23</v>
       </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
         <v>30</v>
       </c>
-      <c r="I69" s="2">
+      <c r="K69" s="2">
         <v>32668</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>1</v>
       </c>
-      <c r="Q69">
+      <c r="S69">
         <v>2.8199185679999998</v>
       </c>
-      <c r="R69" t="s">
-        <v>34</v>
-      </c>
-      <c r="U69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T69" t="s">
+        <v>34</v>
+      </c>
+      <c r="W69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -3599,35 +4020,41 @@
       <c r="E70">
         <v>-110.069</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70">
+        <v>6423</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
         <v>23</v>
       </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
         <v>30</v>
       </c>
-      <c r="I70" s="2">
+      <c r="K70" s="2">
         <v>32680</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>1</v>
       </c>
-      <c r="Q70">
+      <c r="S70">
         <v>0.72340658800000002</v>
       </c>
-      <c r="R70" t="s">
-        <v>34</v>
-      </c>
-      <c r="U70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T70" t="s">
+        <v>34</v>
+      </c>
+      <c r="W70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -3643,35 +4070,41 @@
       <c r="E71">
         <v>-110.069</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71">
+        <v>6423</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
         <v>23</v>
       </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="2">
+      <c r="K71" s="2">
         <v>32688</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>1</v>
       </c>
-      <c r="Q71">
+      <c r="S71">
         <v>0.68394110299999999</v>
       </c>
-      <c r="R71" t="s">
-        <v>34</v>
-      </c>
-      <c r="U71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T71" t="s">
+        <v>34</v>
+      </c>
+      <c r="W71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -3687,35 +4120,41 @@
       <c r="E72">
         <v>-110.069</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72">
+        <v>6423</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
         <v>23</v>
       </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" t="s">
         <v>30</v>
       </c>
-      <c r="I72" s="2">
+      <c r="K72" s="2">
         <v>32701</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>1</v>
       </c>
-      <c r="Q72">
+      <c r="S72">
         <v>0.59907092299999998</v>
       </c>
-      <c r="R72" t="s">
-        <v>34</v>
-      </c>
-      <c r="U72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T72" t="s">
+        <v>34</v>
+      </c>
+      <c r="W72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -3731,35 +4170,41 @@
       <c r="E73">
         <v>-110.069</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73">
+        <v>6423</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
         <v>23</v>
       </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
         <v>30</v>
       </c>
-      <c r="I73" s="2">
+      <c r="K73" s="2">
         <v>32709</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>1</v>
       </c>
-      <c r="Q73">
+      <c r="S73">
         <v>0.63721526799999995</v>
       </c>
-      <c r="R73" t="s">
-        <v>34</v>
-      </c>
-      <c r="U73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T73" t="s">
+        <v>34</v>
+      </c>
+      <c r="W73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -3775,35 +4220,41 @@
       <c r="E74">
         <v>-110.069</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74">
+        <v>6423</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
         <v>23</v>
       </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="2">
+      <c r="K74" s="2">
         <v>32736</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>1</v>
       </c>
-      <c r="Q74">
+      <c r="S74">
         <v>0.48953301999999999</v>
       </c>
-      <c r="R74" t="s">
-        <v>34</v>
-      </c>
-      <c r="U74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T74" t="s">
+        <v>34</v>
+      </c>
+      <c r="W74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -3819,35 +4270,41 @@
       <c r="E75">
         <v>-110.069</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75">
+        <v>6423</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
         <v>23</v>
       </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
         <v>30</v>
       </c>
-      <c r="I75" s="2">
+      <c r="K75" s="2">
         <v>32760</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>1</v>
       </c>
-      <c r="Q75">
+      <c r="S75">
         <v>1.228986087</v>
       </c>
-      <c r="R75" t="s">
-        <v>34</v>
-      </c>
-      <c r="U75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T75" t="s">
+        <v>34</v>
+      </c>
+      <c r="W75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -3863,35 +4320,41 @@
       <c r="E76">
         <v>-110.069</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76">
+        <v>6423</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s">
         <v>23</v>
       </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s">
         <v>30</v>
       </c>
-      <c r="I76" s="2">
+      <c r="K76" s="2">
         <v>32785</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>1</v>
       </c>
-      <c r="Q76">
+      <c r="S76">
         <v>1.440961012</v>
       </c>
-      <c r="R76" t="s">
-        <v>34</v>
-      </c>
-      <c r="U76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T76" t="s">
+        <v>34</v>
+      </c>
+      <c r="W76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -3907,35 +4370,41 @@
       <c r="E77">
         <v>-110.069</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77">
+        <v>6423</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s">
         <v>23</v>
       </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
         <v>30</v>
       </c>
-      <c r="I77" s="2">
+      <c r="K77" s="2">
         <v>32969</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>2</v>
       </c>
-      <c r="Q77">
+      <c r="S77">
         <v>19.70177151</v>
       </c>
-      <c r="R77" t="s">
-        <v>34</v>
-      </c>
-      <c r="U77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T77" t="s">
+        <v>34</v>
+      </c>
+      <c r="W77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -3951,35 +4420,41 @@
       <c r="E78">
         <v>-110.069</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78">
+        <v>6423</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
         <v>23</v>
       </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
         <v>30</v>
       </c>
-      <c r="I78" s="2">
+      <c r="K78" s="2">
         <v>32991</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>2</v>
       </c>
-      <c r="Q78">
+      <c r="S78">
         <v>14.09273825</v>
       </c>
-      <c r="R78" t="s">
-        <v>34</v>
-      </c>
-      <c r="U78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T78" t="s">
+        <v>34</v>
+      </c>
+      <c r="W78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -3995,35 +4470,41 @@
       <c r="E79">
         <v>-110.069</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79">
+        <v>6423</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
         <v>23</v>
       </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
         <v>30</v>
       </c>
-      <c r="I79" s="2">
+      <c r="K79" s="2">
         <v>33002</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>2</v>
       </c>
-      <c r="Q79">
+      <c r="S79">
         <v>13.98363196</v>
       </c>
-      <c r="R79" t="s">
-        <v>34</v>
-      </c>
-      <c r="U79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T79" t="s">
+        <v>34</v>
+      </c>
+      <c r="W79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -4039,35 +4520,41 @@
       <c r="E80">
         <v>-110.069</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80">
+        <v>6423</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s">
         <v>23</v>
       </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
         <v>30</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>33015</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>2</v>
       </c>
-      <c r="Q80">
+      <c r="S80">
         <v>9.8181621060000008</v>
       </c>
-      <c r="R80" t="s">
-        <v>34</v>
-      </c>
-      <c r="U80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T80" t="s">
+        <v>34</v>
+      </c>
+      <c r="W80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -4083,35 +4570,41 @@
       <c r="E81">
         <v>-110.069</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81">
+        <v>6423</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s">
         <v>23</v>
       </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s">
         <v>30</v>
       </c>
-      <c r="I81" s="2">
+      <c r="K81" s="2">
         <v>33026</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>2</v>
       </c>
-      <c r="Q81">
+      <c r="S81">
         <v>9.8455170400000007</v>
       </c>
-      <c r="R81" t="s">
-        <v>34</v>
-      </c>
-      <c r="U81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T81" t="s">
+        <v>34</v>
+      </c>
+      <c r="W81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -4127,35 +4620,41 @@
       <c r="E82">
         <v>-110.069</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82">
+        <v>6423</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s">
         <v>23</v>
       </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s">
         <v>30</v>
       </c>
-      <c r="I82" s="2">
+      <c r="K82" s="2">
         <v>33036</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>2</v>
       </c>
-      <c r="Q82">
+      <c r="S82">
         <v>7.0002210299999996</v>
       </c>
-      <c r="R82" t="s">
-        <v>34</v>
-      </c>
-      <c r="U82" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T82" t="s">
+        <v>34</v>
+      </c>
+      <c r="W82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -4171,35 +4670,41 @@
       <c r="E83">
         <v>-110.069</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83">
+        <v>6423</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s">
         <v>23</v>
       </c>
-      <c r="G83" t="s">
-        <v>33</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" t="s">
         <v>30</v>
       </c>
-      <c r="I83" s="2">
+      <c r="K83" s="2">
         <v>33048</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>2</v>
       </c>
-      <c r="Q83">
+      <c r="S83">
         <v>14.137374660000001</v>
       </c>
-      <c r="R83" t="s">
-        <v>34</v>
-      </c>
-      <c r="U83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T83" t="s">
+        <v>34</v>
+      </c>
+      <c r="W83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -4215,35 +4720,41 @@
       <c r="E84">
         <v>-110.069</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84">
+        <v>6423</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
         <v>23</v>
       </c>
-      <c r="G84" t="s">
-        <v>33</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" t="s">
         <v>30</v>
       </c>
-      <c r="I84" s="2">
+      <c r="K84" s="2">
         <v>33059</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>2</v>
       </c>
-      <c r="Q84">
+      <c r="S84">
         <v>2.7640241200000002</v>
       </c>
-      <c r="R84" t="s">
-        <v>34</v>
-      </c>
-      <c r="U84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T84" t="s">
+        <v>34</v>
+      </c>
+      <c r="W84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -4259,35 +4770,41 @@
       <c r="E85">
         <v>-110.069</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85">
+        <v>6423</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s">
         <v>23</v>
       </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
         <v>30</v>
       </c>
-      <c r="I85" s="2">
+      <c r="K85" s="2">
         <v>33082</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>2</v>
       </c>
-      <c r="Q85">
+      <c r="S85">
         <v>1.3078096320000001</v>
       </c>
-      <c r="R85" t="s">
-        <v>34</v>
-      </c>
-      <c r="U85" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T85" t="s">
+        <v>34</v>
+      </c>
+      <c r="W85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -4303,35 +4820,41 @@
       <c r="E86">
         <v>-110.069</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86">
+        <v>6423</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="s">
         <v>23</v>
       </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s">
         <v>30</v>
       </c>
-      <c r="I86" s="2">
+      <c r="K86" s="2">
         <v>33102</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>2</v>
       </c>
-      <c r="Q86">
+      <c r="S86">
         <v>1.4514396629999999</v>
       </c>
-      <c r="R86" t="s">
-        <v>34</v>
-      </c>
-      <c r="U86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T86" t="s">
+        <v>34</v>
+      </c>
+      <c r="W86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -4347,35 +4870,41 @@
       <c r="E87">
         <v>-110.069</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87">
+        <v>6423</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s">
         <v>23</v>
       </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" t="s">
         <v>30</v>
       </c>
-      <c r="I87" s="2">
+      <c r="K87" s="2">
         <v>33123</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>2</v>
       </c>
-      <c r="Q87">
+      <c r="S87">
         <v>2.2229330730000001</v>
       </c>
-      <c r="R87" t="s">
-        <v>34</v>
-      </c>
-      <c r="U87" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T87" t="s">
+        <v>34</v>
+      </c>
+      <c r="W87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -4391,35 +4920,41 @@
       <c r="E88">
         <v>-110.069</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88">
+        <v>6423</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s">
         <v>23</v>
       </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
+        <v>33</v>
+      </c>
+      <c r="J88" t="s">
         <v>30</v>
       </c>
-      <c r="I88" s="2">
+      <c r="K88" s="2">
         <v>33146</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>3</v>
       </c>
-      <c r="Q88">
+      <c r="S88">
         <v>0.73568648800000003</v>
       </c>
-      <c r="R88" t="s">
-        <v>34</v>
-      </c>
-      <c r="U88" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T88" t="s">
+        <v>34</v>
+      </c>
+      <c r="W88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -4435,35 +4970,41 @@
       <c r="E89">
         <v>-110.069</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89">
+        <v>6423</v>
+      </c>
+      <c r="G89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" t="s">
         <v>23</v>
       </c>
-      <c r="G89" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" t="s">
         <v>30</v>
       </c>
-      <c r="I89" s="2">
+      <c r="K89" s="2">
         <v>33311</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>3</v>
       </c>
-      <c r="Q89">
+      <c r="S89">
         <v>1.8827842480000001</v>
       </c>
-      <c r="R89" t="s">
-        <v>34</v>
-      </c>
-      <c r="U89" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T89" t="s">
+        <v>34</v>
+      </c>
+      <c r="W89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -4479,35 +5020,41 @@
       <c r="E90">
         <v>-110.069</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90">
+        <v>6423</v>
+      </c>
+      <c r="G90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" t="s">
         <v>23</v>
       </c>
-      <c r="G90" t="s">
-        <v>33</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
+        <v>33</v>
+      </c>
+      <c r="J90" t="s">
         <v>30</v>
       </c>
-      <c r="I90" s="2">
+      <c r="K90" s="2">
         <v>33333</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>3</v>
       </c>
-      <c r="Q90">
+      <c r="S90">
         <v>7.5729614420000004</v>
       </c>
-      <c r="R90" t="s">
-        <v>34</v>
-      </c>
-      <c r="U90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T90" t="s">
+        <v>34</v>
+      </c>
+      <c r="W90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -4523,35 +5070,41 @@
       <c r="E91">
         <v>-110.069</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91">
+        <v>6423</v>
+      </c>
+      <c r="G91" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" t="s">
         <v>23</v>
       </c>
-      <c r="G91" t="s">
-        <v>33</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" t="s">
         <v>30</v>
       </c>
-      <c r="I91" s="2">
+      <c r="K91" s="2">
         <v>33355</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="Q91">
+      <c r="S91">
         <v>9.288896716</v>
       </c>
-      <c r="R91" t="s">
-        <v>34</v>
-      </c>
-      <c r="U91" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -4567,35 +5120,41 @@
       <c r="E92">
         <v>-110.069</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92">
+        <v>6423</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="s">
         <v>23</v>
       </c>
-      <c r="G92" t="s">
-        <v>33</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" t="s">
         <v>30</v>
       </c>
-      <c r="I92" s="2">
+      <c r="K92" s="2">
         <v>33369</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="Q92">
+      <c r="S92">
         <v>12.65084635</v>
       </c>
-      <c r="R92" t="s">
-        <v>34</v>
-      </c>
-      <c r="U92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T92" t="s">
+        <v>34</v>
+      </c>
+      <c r="W92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -4611,35 +5170,41 @@
       <c r="E93">
         <v>-110.069</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93">
+        <v>6423</v>
+      </c>
+      <c r="G93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" t="s">
         <v>23</v>
       </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" t="s">
         <v>30</v>
       </c>
-      <c r="I93" s="2">
+      <c r="K93" s="2">
         <v>33381</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>3</v>
       </c>
-      <c r="Q93">
+      <c r="S93">
         <v>19.69845402</v>
       </c>
-      <c r="R93" t="s">
-        <v>34</v>
-      </c>
-      <c r="U93" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T93" t="s">
+        <v>34</v>
+      </c>
+      <c r="W93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -4655,35 +5220,41 @@
       <c r="E94">
         <v>-110.069</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94">
+        <v>6423</v>
+      </c>
+      <c r="G94" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" t="s">
         <v>23</v>
       </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" t="s">
         <v>30</v>
       </c>
-      <c r="I94" s="2">
+      <c r="K94" s="2">
         <v>33390</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>3</v>
       </c>
-      <c r="Q94">
+      <c r="S94">
         <v>15.5554977</v>
       </c>
-      <c r="R94" t="s">
-        <v>34</v>
-      </c>
-      <c r="U94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T94" t="s">
+        <v>34</v>
+      </c>
+      <c r="W94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -4699,35 +5270,41 @@
       <c r="E95">
         <v>-110.069</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95">
+        <v>6423</v>
+      </c>
+      <c r="G95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" t="s">
         <v>23</v>
       </c>
-      <c r="G95" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95" t="s">
         <v>30</v>
       </c>
-      <c r="I95" s="2">
+      <c r="K95" s="2">
         <v>33401</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>3</v>
       </c>
-      <c r="Q95">
+      <c r="S95">
         <v>9.5587784570000007</v>
       </c>
-      <c r="R95" t="s">
-        <v>34</v>
-      </c>
-      <c r="U95" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T95" t="s">
+        <v>34</v>
+      </c>
+      <c r="W95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -4743,35 +5320,41 @@
       <c r="E96">
         <v>-110.069</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96">
+        <v>6423</v>
+      </c>
+      <c r="G96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" t="s">
         <v>23</v>
       </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" t="s">
         <v>30</v>
       </c>
-      <c r="I96" s="2">
+      <c r="K96" s="2">
         <v>33411</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="L96" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>3</v>
       </c>
-      <c r="Q96">
+      <c r="S96">
         <v>0.84050077999999995</v>
       </c>
-      <c r="R96" t="s">
-        <v>34</v>
-      </c>
-      <c r="U96" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T96" t="s">
+        <v>34</v>
+      </c>
+      <c r="W96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -4787,35 +5370,41 @@
       <c r="E97">
         <v>-110.069</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97">
+        <v>6423</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="s">
         <v>23</v>
       </c>
-      <c r="G97" t="s">
-        <v>33</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97" t="s">
         <v>30</v>
       </c>
-      <c r="I97" s="2">
+      <c r="K97" s="2">
         <v>33423</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>3</v>
       </c>
-      <c r="Q97">
+      <c r="S97">
         <v>5.2878887219999999</v>
       </c>
-      <c r="R97" t="s">
-        <v>34</v>
-      </c>
-      <c r="U97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T97" t="s">
+        <v>34</v>
+      </c>
+      <c r="W97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -4831,35 +5420,41 @@
       <c r="E98">
         <v>-110.069</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98">
+        <v>6423</v>
+      </c>
+      <c r="G98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s">
         <v>23</v>
       </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" t="s">
         <v>30</v>
       </c>
-      <c r="I98" s="2">
+      <c r="K98" s="2">
         <v>33438</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>3</v>
       </c>
-      <c r="Q98">
+      <c r="S98">
         <v>0.467357411</v>
       </c>
-      <c r="R98" t="s">
-        <v>34</v>
-      </c>
-      <c r="U98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T98" t="s">
+        <v>34</v>
+      </c>
+      <c r="W98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -4875,35 +5470,41 @@
       <c r="E99">
         <v>-110.069</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99">
+        <v>6423</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s">
         <v>23</v>
       </c>
-      <c r="G99" t="s">
-        <v>33</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" t="s">
         <v>30</v>
       </c>
-      <c r="I99" s="2">
+      <c r="K99" s="2">
         <v>33458</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>3</v>
       </c>
-      <c r="Q99">
+      <c r="S99">
         <v>1.0229263660000001</v>
       </c>
-      <c r="R99" t="s">
-        <v>34</v>
-      </c>
-      <c r="U99" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T99" t="s">
+        <v>34</v>
+      </c>
+      <c r="W99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -4919,35 +5520,41 @@
       <c r="E100">
         <v>-110.069</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100">
+        <v>6423</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="s">
         <v>23</v>
       </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" t="s">
         <v>30</v>
       </c>
-      <c r="I100" s="2">
+      <c r="K100" s="2">
         <v>33478</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>4</v>
       </c>
-      <c r="Q100">
+      <c r="S100">
         <v>2.9962158560000001</v>
       </c>
-      <c r="R100" t="s">
-        <v>34</v>
-      </c>
-      <c r="U100" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T100" t="s">
+        <v>34</v>
+      </c>
+      <c r="W100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -4963,35 +5570,41 @@
       <c r="E101">
         <v>-110.069</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101">
+        <v>6423</v>
+      </c>
+      <c r="G101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" t="s">
         <v>23</v>
       </c>
-      <c r="G101" t="s">
-        <v>33</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" t="s">
         <v>30</v>
       </c>
-      <c r="I101" s="2">
+      <c r="K101" s="2">
         <v>33677</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>4</v>
       </c>
-      <c r="Q101">
+      <c r="S101">
         <v>10.378629950000001</v>
       </c>
-      <c r="R101" t="s">
-        <v>34</v>
-      </c>
-      <c r="U101" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T101" t="s">
+        <v>34</v>
+      </c>
+      <c r="W101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -5007,35 +5620,41 @@
       <c r="E102">
         <v>-110.069</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102">
+        <v>6423</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s">
         <v>23</v>
       </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" t="s">
         <v>30</v>
       </c>
-      <c r="I102" s="2">
+      <c r="K102" s="2">
         <v>33703</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>4</v>
       </c>
-      <c r="Q102">
+      <c r="S102">
         <v>10.3509692</v>
       </c>
-      <c r="R102" t="s">
-        <v>34</v>
-      </c>
-      <c r="U102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T102" t="s">
+        <v>34</v>
+      </c>
+      <c r="W102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -5051,35 +5670,41 @@
       <c r="E103">
         <v>-110.069</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103">
+        <v>6423</v>
+      </c>
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" t="s">
         <v>23</v>
       </c>
-      <c r="G103" t="s">
-        <v>33</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103" t="s">
         <v>30</v>
       </c>
-      <c r="I103" s="2">
+      <c r="K103" s="2">
         <v>33725</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>4</v>
       </c>
-      <c r="Q103">
+      <c r="S103">
         <v>13.26430487</v>
       </c>
-      <c r="R103" t="s">
-        <v>34</v>
-      </c>
-      <c r="U103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T103" t="s">
+        <v>34</v>
+      </c>
+      <c r="W103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -5095,35 +5720,41 @@
       <c r="E104">
         <v>-110.069</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104">
+        <v>6423</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s">
         <v>23</v>
       </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" t="s">
         <v>30</v>
       </c>
-      <c r="I104" s="2">
+      <c r="K104" s="2">
         <v>33734</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>4</v>
       </c>
-      <c r="Q104">
+      <c r="S104">
         <v>16.990631050000001</v>
       </c>
-      <c r="R104" t="s">
-        <v>34</v>
-      </c>
-      <c r="U104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T104" t="s">
+        <v>34</v>
+      </c>
+      <c r="W104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -5139,35 +5770,41 @@
       <c r="E105">
         <v>-110.069</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105">
+        <v>6423</v>
+      </c>
+      <c r="G105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s">
         <v>23</v>
       </c>
-      <c r="G105" t="s">
-        <v>33</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
+        <v>33</v>
+      </c>
+      <c r="J105" t="s">
         <v>30</v>
       </c>
-      <c r="I105" s="2">
+      <c r="K105" s="2">
         <v>33744</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>4</v>
       </c>
-      <c r="Q105">
+      <c r="S105">
         <v>14.111787509999999</v>
       </c>
-      <c r="R105" t="s">
-        <v>34</v>
-      </c>
-      <c r="U105" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T105" t="s">
+        <v>34</v>
+      </c>
+      <c r="W105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -5183,35 +5820,41 @@
       <c r="E106">
         <v>-110.069</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106">
+        <v>6423</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s">
         <v>23</v>
       </c>
-      <c r="G106" t="s">
-        <v>33</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" t="s">
         <v>30</v>
       </c>
-      <c r="I106" s="2">
+      <c r="K106" s="2">
         <v>33755</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>4</v>
       </c>
-      <c r="Q106">
+      <c r="S106">
         <v>10.959629189999999</v>
       </c>
-      <c r="R106" t="s">
-        <v>34</v>
-      </c>
-      <c r="U106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T106" t="s">
+        <v>34</v>
+      </c>
+      <c r="W106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -5227,35 +5870,41 @@
       <c r="E107">
         <v>-110.069</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107">
+        <v>6423</v>
+      </c>
+      <c r="G107" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s">
         <v>23</v>
       </c>
-      <c r="G107" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" t="s">
         <v>30</v>
       </c>
-      <c r="I107" s="2">
+      <c r="K107" s="2">
         <v>33767</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>4</v>
       </c>
-      <c r="Q107">
+      <c r="S107">
         <v>7.7370104489999996</v>
       </c>
-      <c r="R107" t="s">
-        <v>34</v>
-      </c>
-      <c r="U107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T107" t="s">
+        <v>34</v>
+      </c>
+      <c r="W107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>27</v>
       </c>
@@ -5271,35 +5920,41 @@
       <c r="E108">
         <v>-110.069</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108">
+        <v>6423</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s">
         <v>23</v>
       </c>
-      <c r="G108" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108" t="s">
         <v>30</v>
       </c>
-      <c r="I108" s="2">
+      <c r="K108" s="2">
         <v>33776</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>4</v>
       </c>
-      <c r="Q108">
+      <c r="S108">
         <v>7.0299994010000004</v>
       </c>
-      <c r="R108" t="s">
-        <v>34</v>
-      </c>
-      <c r="U108" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T108" t="s">
+        <v>34</v>
+      </c>
+      <c r="W108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -5315,35 +5970,41 @@
       <c r="E109">
         <v>-110.069</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109">
+        <v>6423</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" t="s">
         <v>23</v>
       </c>
-      <c r="G109" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
+        <v>33</v>
+      </c>
+      <c r="J109" t="s">
         <v>30</v>
       </c>
-      <c r="I109" s="2">
+      <c r="K109" s="2">
         <v>33787</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>4</v>
       </c>
-      <c r="Q109">
+      <c r="S109">
         <v>6.6298223600000004</v>
       </c>
-      <c r="R109" t="s">
-        <v>34</v>
-      </c>
-      <c r="U109" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T109" t="s">
+        <v>34</v>
+      </c>
+      <c r="W109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -5359,35 +6020,41 @@
       <c r="E110">
         <v>-110.069</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110">
+        <v>6423</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s">
         <v>23</v>
       </c>
-      <c r="G110" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110" t="s">
         <v>30</v>
       </c>
-      <c r="I110" s="2">
+      <c r="K110" s="2">
         <v>33809</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>4</v>
       </c>
-      <c r="Q110">
+      <c r="S110">
         <v>4.2162202320000004</v>
       </c>
-      <c r="R110" t="s">
-        <v>34</v>
-      </c>
-      <c r="U110" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T110" t="s">
+        <v>34</v>
+      </c>
+      <c r="W110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -5403,35 +6070,41 @@
       <c r="E111">
         <v>-110.069</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111">
+        <v>6423</v>
+      </c>
+      <c r="G111" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" t="s">
         <v>23</v>
       </c>
-      <c r="G111" t="s">
-        <v>33</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" t="s">
         <v>30</v>
       </c>
-      <c r="I111" s="2">
+      <c r="K111" s="2">
         <v>33831</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>4</v>
       </c>
-      <c r="Q111">
+      <c r="S111">
         <v>4.3041317020000003</v>
       </c>
-      <c r="R111" t="s">
-        <v>34</v>
-      </c>
-      <c r="U111" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T111" t="s">
+        <v>34</v>
+      </c>
+      <c r="W111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -5447,35 +6120,41 @@
       <c r="E112">
         <v>-110.069</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112">
+        <v>6423</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" t="s">
         <v>23</v>
       </c>
-      <c r="G112" t="s">
-        <v>33</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" t="s">
         <v>30</v>
       </c>
-      <c r="I112" s="2">
+      <c r="K112" s="2">
         <v>33851</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>5</v>
       </c>
-      <c r="Q112">
+      <c r="S112">
         <v>2.489017644</v>
       </c>
-      <c r="R112" t="s">
-        <v>34</v>
-      </c>
-      <c r="U112" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T112" t="s">
+        <v>34</v>
+      </c>
+      <c r="W112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -5491,35 +6170,41 @@
       <c r="E113">
         <v>-110.069</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113">
+        <v>6423</v>
+      </c>
+      <c r="G113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H113" t="s">
         <v>23</v>
       </c>
-      <c r="G113" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" t="s">
         <v>30</v>
       </c>
-      <c r="I113" s="2">
+      <c r="K113" s="2">
         <v>34049</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="L113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>5</v>
       </c>
-      <c r="Q113">
+      <c r="S113">
         <v>5.8605132539999998</v>
       </c>
-      <c r="R113" t="s">
-        <v>34</v>
-      </c>
-      <c r="U113" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T113" t="s">
+        <v>34</v>
+      </c>
+      <c r="W113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -5535,35 +6220,41 @@
       <c r="E114">
         <v>-110.069</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114">
+        <v>6423</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="s">
         <v>23</v>
       </c>
-      <c r="G114" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114" t="s">
         <v>30</v>
       </c>
-      <c r="I114" s="2">
+      <c r="K114" s="2">
         <v>34075</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>5</v>
       </c>
-      <c r="Q114">
+      <c r="S114">
         <v>4.3164179620000001</v>
       </c>
-      <c r="R114" t="s">
-        <v>34</v>
-      </c>
-      <c r="U114" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T114" t="s">
+        <v>34</v>
+      </c>
+      <c r="W114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -5579,35 +6270,41 @@
       <c r="E115">
         <v>-110.069</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115">
+        <v>6423</v>
+      </c>
+      <c r="G115" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115" t="s">
         <v>23</v>
       </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115" t="s">
         <v>30</v>
       </c>
-      <c r="I115" s="2">
+      <c r="K115" s="2">
         <v>34096</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>5</v>
       </c>
-      <c r="Q115">
+      <c r="S115">
         <v>4.6446794919999999</v>
       </c>
-      <c r="R115" t="s">
-        <v>34</v>
-      </c>
-      <c r="U115" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T115" t="s">
+        <v>34</v>
+      </c>
+      <c r="W115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -5623,35 +6320,41 @@
       <c r="E116">
         <v>-110.069</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116">
+        <v>6423</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s">
         <v>23</v>
       </c>
-      <c r="G116" t="s">
-        <v>33</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
+        <v>33</v>
+      </c>
+      <c r="J116" t="s">
         <v>30</v>
       </c>
-      <c r="I116" s="2">
+      <c r="K116" s="2">
         <v>34109</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K116">
+      <c r="M116">
         <v>5</v>
       </c>
-      <c r="Q116">
+      <c r="S116">
         <v>12.07822986</v>
       </c>
-      <c r="R116" t="s">
-        <v>34</v>
-      </c>
-      <c r="U116" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T116" t="s">
+        <v>34</v>
+      </c>
+      <c r="W116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -5667,35 +6370,41 @@
       <c r="E117">
         <v>-110.069</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117">
+        <v>6423</v>
+      </c>
+      <c r="G117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" t="s">
         <v>23</v>
       </c>
-      <c r="G117" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
+        <v>33</v>
+      </c>
+      <c r="J117" t="s">
         <v>30</v>
       </c>
-      <c r="I117" s="2">
+      <c r="K117" s="2">
         <v>34117</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K117">
+      <c r="M117">
         <v>5</v>
       </c>
-      <c r="Q117">
+      <c r="S117">
         <v>10.46497724</v>
       </c>
-      <c r="R117" t="s">
-        <v>34</v>
-      </c>
-      <c r="U117" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T117" t="s">
+        <v>34</v>
+      </c>
+      <c r="W117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -5711,35 +6420,41 @@
       <c r="E118">
         <v>-110.069</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118">
+        <v>6423</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s">
         <v>23</v>
       </c>
-      <c r="G118" t="s">
-        <v>33</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
+        <v>33</v>
+      </c>
+      <c r="J118" t="s">
         <v>30</v>
       </c>
-      <c r="I118" s="2">
+      <c r="K118" s="2">
         <v>34129</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="L118" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K118">
+      <c r="M118">
         <v>5</v>
       </c>
-      <c r="Q118">
+      <c r="S118">
         <v>8.1380249490000001</v>
       </c>
-      <c r="R118" t="s">
-        <v>34</v>
-      </c>
-      <c r="U118" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T118" t="s">
+        <v>34</v>
+      </c>
+      <c r="W118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -5755,35 +6470,41 @@
       <c r="E119">
         <v>-110.069</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119">
+        <v>6423</v>
+      </c>
+      <c r="G119" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s">
         <v>23</v>
       </c>
-      <c r="G119" t="s">
-        <v>33</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119" t="s">
         <v>30</v>
       </c>
-      <c r="I119" s="2">
+      <c r="K119" s="2">
         <v>34140</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="L119" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K119">
+      <c r="M119">
         <v>5</v>
       </c>
-      <c r="Q119">
+      <c r="S119">
         <v>7.725275248</v>
       </c>
-      <c r="R119" t="s">
-        <v>34</v>
-      </c>
-      <c r="U119" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T119" t="s">
+        <v>34</v>
+      </c>
+      <c r="W119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -5799,35 +6520,41 @@
       <c r="E120">
         <v>-110.069</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120">
+        <v>6423</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s">
         <v>23</v>
       </c>
-      <c r="G120" t="s">
-        <v>33</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120" t="s">
         <v>30</v>
       </c>
-      <c r="I120" s="2">
+      <c r="K120" s="2">
         <v>34151</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="L120" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K120">
+      <c r="M120">
         <v>5</v>
       </c>
-      <c r="Q120">
+      <c r="S120">
         <v>6.4703840599999998</v>
       </c>
-      <c r="R120" t="s">
-        <v>34</v>
-      </c>
-      <c r="U120" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T120" t="s">
+        <v>34</v>
+      </c>
+      <c r="W120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -5843,35 +6570,41 @@
       <c r="E121">
         <v>-110.069</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121">
+        <v>6423</v>
+      </c>
+      <c r="G121" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" t="s">
         <v>23</v>
       </c>
-      <c r="G121" t="s">
-        <v>33</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" t="s">
         <v>30</v>
       </c>
-      <c r="I121" s="2">
+      <c r="K121" s="2">
         <v>34172</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="L121" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K121">
+      <c r="M121">
         <v>5</v>
       </c>
-      <c r="Q121">
+      <c r="S121">
         <v>2.201971178</v>
       </c>
-      <c r="R121" t="s">
-        <v>34</v>
-      </c>
-      <c r="U121" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T121" t="s">
+        <v>34</v>
+      </c>
+      <c r="W121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -5887,35 +6620,41 @@
       <c r="E122">
         <v>-110.069</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122">
+        <v>6423</v>
+      </c>
+      <c r="G122" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" t="s">
         <v>23</v>
       </c>
-      <c r="G122" t="s">
-        <v>33</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" t="s">
         <v>30</v>
       </c>
-      <c r="I122" s="2">
+      <c r="K122" s="2">
         <v>34215</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="L122" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K122">
+      <c r="M122">
         <v>5</v>
       </c>
-      <c r="Q122">
+      <c r="S122">
         <v>2.389475719</v>
       </c>
-      <c r="R122" t="s">
-        <v>34</v>
-      </c>
-      <c r="U122" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T122" t="s">
+        <v>34</v>
+      </c>
+      <c r="W122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -5931,1441 +6670,43 @@
       <c r="E123">
         <v>-110.069</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123">
+        <v>6423</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" t="s">
         <v>23</v>
       </c>
-      <c r="G123" t="s">
-        <v>33</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123" t="s">
         <v>30</v>
       </c>
-      <c r="I123" s="2">
+      <c r="K123" s="2">
         <v>34242</v>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="L123" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K123">
+      <c r="M123">
         <v>5</v>
       </c>
-      <c r="Q123">
+      <c r="S123">
         <v>3.2318846649999999</v>
       </c>
-      <c r="R123" t="s">
-        <v>34</v>
-      </c>
-      <c r="U123" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I135" s="2"/>
-      <c r="K135" s="3"/>
-    </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I140" s="2"/>
-      <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I142" s="2"/>
-      <c r="K142" s="3"/>
-    </row>
-    <row r="143" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I143" s="2"/>
-      <c r="K143" s="3"/>
-    </row>
-    <row r="144" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I145" s="2"/>
-      <c r="K145" s="3"/>
-    </row>
-    <row r="146" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I146" s="2"/>
-      <c r="K146" s="3"/>
-    </row>
-    <row r="147" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I148" s="2"/>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I150" s="2"/>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I151" s="2"/>
-      <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I160" s="2"/>
-      <c r="K160" s="3"/>
-    </row>
-    <row r="161" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I161" s="2"/>
-      <c r="K161" s="3"/>
-    </row>
-    <row r="162" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I181" s="2"/>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I183" s="2"/>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I185" s="2"/>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I186" s="2"/>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I187" s="2"/>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I188" s="2"/>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I189" s="2"/>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I190" s="2"/>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I193" s="2"/>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I194" s="2"/>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I195" s="2"/>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I196" s="2"/>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I197" s="2"/>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I198" s="2"/>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I199" s="2"/>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I200" s="2"/>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I201" s="2"/>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I202" s="2"/>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I203" s="2"/>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I204" s="2"/>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I205" s="2"/>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I206" s="2"/>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I207" s="2"/>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I208" s="2"/>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I209" s="2"/>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I210" s="2"/>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I211" s="2"/>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I212" s="2"/>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I213" s="2"/>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I214" s="2"/>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I215" s="2"/>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I216" s="2"/>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I217" s="2"/>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I218" s="2"/>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I219" s="2"/>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I220" s="2"/>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I221" s="2"/>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I222" s="2"/>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I223" s="2"/>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I224" s="2"/>
-    </row>
-    <row r="225" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I225" s="2"/>
-    </row>
-    <row r="226" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I226" s="2"/>
-    </row>
-    <row r="227" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I227" s="2"/>
-    </row>
-    <row r="228" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I228" s="2"/>
-    </row>
-    <row r="229" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I229" s="2"/>
-    </row>
-    <row r="230" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I230" s="2"/>
-    </row>
-    <row r="231" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I231" s="2"/>
-    </row>
-    <row r="232" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I232" s="2"/>
-      <c r="Q232" s="4"/>
-    </row>
-    <row r="233" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I233" s="2"/>
-      <c r="Q233" s="4"/>
-    </row>
-    <row r="234" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I234" s="2"/>
-    </row>
-    <row r="235" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I235" s="2"/>
-    </row>
-    <row r="236" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I236" s="2"/>
-    </row>
-    <row r="237" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I237" s="2"/>
-    </row>
-    <row r="238" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I238" s="2"/>
-    </row>
-    <row r="239" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I239" s="2"/>
-    </row>
-    <row r="240" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I240" s="2"/>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I241" s="2"/>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I242" s="2"/>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I243" s="2"/>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I244" s="2"/>
-    </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I245" s="2"/>
-    </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I246" s="2"/>
-    </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I247" s="2"/>
-    </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I248" s="2"/>
-    </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I249" s="2"/>
-    </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I250" s="2"/>
-    </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I251" s="2"/>
-    </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I252" s="2"/>
-    </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I253" s="2"/>
-    </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I254" s="2"/>
-    </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I255" s="2"/>
-    </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I256" s="2"/>
-    </row>
-    <row r="257" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I257" s="2"/>
-    </row>
-    <row r="258" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I258" s="2"/>
-    </row>
-    <row r="259" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I259" s="2"/>
-    </row>
-    <row r="260" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I260" s="2"/>
-    </row>
-    <row r="261" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I261" s="2"/>
-    </row>
-    <row r="262" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I262" s="2"/>
-    </row>
-    <row r="263" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I263" s="2"/>
-    </row>
-    <row r="264" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I264" s="2"/>
-    </row>
-    <row r="265" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I265" s="2"/>
-      <c r="K265" s="3"/>
-    </row>
-    <row r="266" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I266" s="2"/>
-      <c r="K266" s="3"/>
-    </row>
-    <row r="267" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I267" s="2"/>
-      <c r="K267" s="3"/>
-    </row>
-    <row r="268" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I268" s="2"/>
-    </row>
-    <row r="269" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I269" s="2"/>
-      <c r="K269" s="3"/>
-    </row>
-    <row r="270" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I270" s="2"/>
-    </row>
-    <row r="271" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I271" s="2"/>
-      <c r="K271" s="3"/>
-    </row>
-    <row r="272" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I272" s="2"/>
-    </row>
-    <row r="273" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I273" s="2"/>
-    </row>
-    <row r="274" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I274" s="2"/>
-      <c r="K274" s="3"/>
-    </row>
-    <row r="275" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I275" s="2"/>
-      <c r="K275" s="3"/>
-    </row>
-    <row r="276" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I276" s="2"/>
-    </row>
-    <row r="277" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I277" s="2"/>
-      <c r="K277" s="3"/>
-    </row>
-    <row r="278" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I278" s="2"/>
-    </row>
-    <row r="279" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I279" s="2"/>
-      <c r="K279" s="3"/>
-    </row>
-    <row r="280" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I280" s="2"/>
-    </row>
-    <row r="281" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I281" s="2"/>
-      <c r="K281" s="3"/>
-    </row>
-    <row r="282" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I282" s="2"/>
-    </row>
-    <row r="283" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I283" s="2"/>
-    </row>
-    <row r="284" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I284" s="2"/>
-      <c r="K284" s="3"/>
-    </row>
-    <row r="285" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I285" s="2"/>
-      <c r="K285" s="3"/>
-    </row>
-    <row r="286" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I286" s="2"/>
-      <c r="K286" s="3"/>
-    </row>
-    <row r="287" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I287" s="2"/>
-      <c r="K287" s="3"/>
-    </row>
-    <row r="288" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I288" s="2"/>
-    </row>
-    <row r="289" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I289" s="2"/>
-      <c r="K289" s="3"/>
-    </row>
-    <row r="290" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I290" s="2"/>
-      <c r="K290" s="3"/>
-    </row>
-    <row r="291" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I291" s="2"/>
-      <c r="K291" s="3"/>
-    </row>
-    <row r="292" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I292" s="2"/>
-    </row>
-    <row r="293" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I293" s="2"/>
-      <c r="K293" s="3"/>
-    </row>
-    <row r="294" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I294" s="2"/>
-    </row>
-    <row r="295" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I295" s="2"/>
-    </row>
-    <row r="296" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I296" s="2"/>
-    </row>
-    <row r="297" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I297" s="2"/>
-    </row>
-    <row r="298" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I298" s="2"/>
-    </row>
-    <row r="299" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I299" s="2"/>
-    </row>
-    <row r="300" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I300" s="2"/>
-    </row>
-    <row r="301" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I301" s="2"/>
-    </row>
-    <row r="302" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I302" s="2"/>
-    </row>
-    <row r="303" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I303" s="2"/>
-    </row>
-    <row r="304" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I304" s="2"/>
-    </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I305" s="2"/>
-    </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I306" s="2"/>
-    </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I307" s="2"/>
-    </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I308" s="2"/>
-    </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I309" s="2"/>
-    </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I310" s="2"/>
-    </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I311" s="2"/>
-    </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I312" s="2"/>
-    </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I313" s="2"/>
-    </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I314" s="2"/>
-    </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I315" s="2"/>
-    </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I316" s="2"/>
-    </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I317" s="2"/>
-    </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I318" s="2"/>
-    </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I319" s="2"/>
-    </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I320" s="2"/>
-    </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I321" s="2"/>
-    </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I322" s="2"/>
-    </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I323" s="2"/>
-    </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I324" s="2"/>
-    </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I325" s="2"/>
-    </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I326" s="2"/>
-    </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I327" s="2"/>
-    </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I328" s="2"/>
-    </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I329" s="2"/>
-    </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I330" s="2"/>
-    </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I331" s="2"/>
-    </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I332" s="2"/>
-    </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I333" s="2"/>
-    </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I334" s="2"/>
-    </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I335" s="2"/>
-    </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I336" s="2"/>
-    </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I337" s="2"/>
-    </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I338" s="2"/>
-    </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I339" s="2"/>
-    </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I340" s="2"/>
-    </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I341" s="2"/>
-    </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I342" s="2"/>
-    </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I343" s="2"/>
-    </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I344" s="2"/>
-    </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I345" s="2"/>
-    </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I346" s="2"/>
-    </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I347" s="2"/>
-    </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I348" s="2"/>
-    </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I349" s="2"/>
-    </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I350" s="2"/>
-    </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I351" s="2"/>
-    </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I352" s="2"/>
-    </row>
-    <row r="353" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I353" s="2"/>
-    </row>
-    <row r="354" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I354" s="2"/>
-    </row>
-    <row r="355" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I355" s="2"/>
-    </row>
-    <row r="356" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I356" s="2"/>
-    </row>
-    <row r="357" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I357" s="2"/>
-    </row>
-    <row r="358" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I358" s="2"/>
-    </row>
-    <row r="359" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I359" s="2"/>
-      <c r="K359" s="3"/>
-    </row>
-    <row r="360" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I360" s="2"/>
-      <c r="K360" s="3"/>
-    </row>
-    <row r="361" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I361" s="2"/>
-      <c r="K361" s="3"/>
-    </row>
-    <row r="362" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I362" s="2"/>
-    </row>
-    <row r="363" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I363" s="2"/>
-    </row>
-    <row r="364" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I364" s="2"/>
-      <c r="K364" s="3"/>
-    </row>
-    <row r="365" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I365" s="2"/>
-    </row>
-    <row r="366" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I366" s="2"/>
-      <c r="K366" s="3"/>
-    </row>
-    <row r="367" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I367" s="2"/>
-    </row>
-    <row r="368" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I368" s="2"/>
-      <c r="K368" s="3"/>
-    </row>
-    <row r="369" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I369" s="2"/>
-    </row>
-    <row r="370" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I370" s="2"/>
-      <c r="K370" s="3"/>
-    </row>
-    <row r="371" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I371" s="2"/>
-    </row>
-    <row r="372" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I372" s="2"/>
-    </row>
-    <row r="373" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I373" s="2"/>
-      <c r="K373" s="3"/>
-    </row>
-    <row r="374" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I374" s="2"/>
-    </row>
-    <row r="375" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I375" s="2"/>
-      <c r="K375" s="3"/>
-    </row>
-    <row r="376" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I376" s="2"/>
-    </row>
-    <row r="377" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I377" s="2"/>
-      <c r="K377" s="3"/>
-    </row>
-    <row r="378" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I378" s="2"/>
-    </row>
-    <row r="379" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I379" s="2"/>
-      <c r="K379" s="3"/>
-    </row>
-    <row r="380" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I380" s="2"/>
-    </row>
-    <row r="381" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I381" s="2"/>
-      <c r="K381" s="3"/>
-    </row>
-    <row r="382" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I382" s="2"/>
-    </row>
-    <row r="383" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I383" s="2"/>
-    </row>
-    <row r="384" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I384" s="2"/>
-    </row>
-    <row r="385" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I385" s="2"/>
-    </row>
-    <row r="386" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I386" s="2"/>
-    </row>
-    <row r="387" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I387" s="2"/>
-    </row>
-    <row r="388" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I388" s="2"/>
-    </row>
-    <row r="389" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I389" s="2"/>
-    </row>
-    <row r="390" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I390" s="2"/>
-    </row>
-    <row r="391" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I391" s="2"/>
-    </row>
-    <row r="392" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I392" s="2"/>
-    </row>
-    <row r="393" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I393" s="2"/>
-    </row>
-    <row r="394" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I394" s="2"/>
-    </row>
-    <row r="395" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I395" s="2"/>
-    </row>
-    <row r="396" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I396" s="2"/>
-    </row>
-    <row r="397" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I397" s="2"/>
-    </row>
-    <row r="398" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I398" s="2"/>
-    </row>
-    <row r="399" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I399" s="2"/>
-    </row>
-    <row r="400" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I400" s="2"/>
-    </row>
-    <row r="401" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I401" s="2"/>
-    </row>
-    <row r="402" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I402" s="2"/>
-    </row>
-    <row r="403" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I403" s="2"/>
-    </row>
-    <row r="404" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I404" s="2"/>
-    </row>
-    <row r="405" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I405" s="2"/>
-    </row>
-    <row r="406" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I406" s="2"/>
-    </row>
-    <row r="407" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I407" s="2"/>
-    </row>
-    <row r="408" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I408" s="2"/>
-    </row>
-    <row r="409" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I409" s="2"/>
-    </row>
-    <row r="410" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I410" s="2"/>
-    </row>
-    <row r="411" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I411" s="2"/>
-    </row>
-    <row r="412" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I412" s="2"/>
-    </row>
-    <row r="413" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I413" s="2"/>
-    </row>
-    <row r="414" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I414" s="2"/>
-    </row>
-    <row r="415" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I415" s="2"/>
-    </row>
-    <row r="416" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I416" s="2"/>
-    </row>
-    <row r="417" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I417" s="2"/>
-    </row>
-    <row r="418" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I418" s="2"/>
-    </row>
-    <row r="419" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I419" s="2"/>
-    </row>
-    <row r="420" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I420" s="2"/>
-    </row>
-    <row r="421" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I421" s="2"/>
-    </row>
-    <row r="422" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I422" s="2"/>
-    </row>
-    <row r="423" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I423" s="2"/>
-    </row>
-    <row r="424" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I424" s="2"/>
-    </row>
-    <row r="425" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I425" s="2"/>
-    </row>
-    <row r="426" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I426" s="2"/>
-    </row>
-    <row r="427" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I427" s="2"/>
-    </row>
-    <row r="428" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I428" s="2"/>
-    </row>
-    <row r="429" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I429" s="2"/>
-    </row>
-    <row r="430" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I430" s="2"/>
-    </row>
-    <row r="431" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I431" s="2"/>
-    </row>
-    <row r="432" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I432" s="2"/>
-    </row>
-    <row r="433" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I433" s="2"/>
-    </row>
-    <row r="434" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I434" s="2"/>
-    </row>
-    <row r="435" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I435" s="2"/>
-    </row>
-    <row r="436" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I436" s="2"/>
-    </row>
-    <row r="437" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I437" s="2"/>
-    </row>
-    <row r="438" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I438" s="2"/>
-    </row>
-    <row r="439" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I439" s="2"/>
-    </row>
-    <row r="440" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I440" s="2"/>
-    </row>
-    <row r="441" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I441" s="2"/>
-    </row>
-    <row r="442" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I442" s="2"/>
-    </row>
-    <row r="443" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I443" s="2"/>
-    </row>
-    <row r="444" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I444" s="2"/>
-    </row>
-    <row r="445" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I445" s="2"/>
-    </row>
-    <row r="446" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I446" s="2"/>
-    </row>
-    <row r="447" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I447" s="2"/>
-    </row>
-    <row r="448" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I448" s="2"/>
-    </row>
-    <row r="449" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I449" s="2"/>
-    </row>
-    <row r="450" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I450" s="2"/>
-    </row>
-    <row r="451" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I451" s="2"/>
-    </row>
-    <row r="452" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I452" s="2"/>
-    </row>
-    <row r="453" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I453" s="2"/>
-    </row>
-    <row r="454" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I454" s="2"/>
-    </row>
-    <row r="455" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I455" s="2"/>
-    </row>
-    <row r="456" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I456" s="2"/>
-    </row>
-    <row r="457" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I457" s="2"/>
-    </row>
-    <row r="458" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I458" s="2"/>
-    </row>
-    <row r="459" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I459" s="2"/>
-    </row>
-    <row r="460" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I460" s="2"/>
-    </row>
-    <row r="461" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I461" s="2"/>
-    </row>
-    <row r="462" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I462" s="2"/>
-    </row>
-    <row r="463" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I463" s="2"/>
-    </row>
-    <row r="464" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I464" s="2"/>
-    </row>
-    <row r="465" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I465" s="2"/>
-    </row>
-    <row r="466" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I466" s="2"/>
-    </row>
-    <row r="467" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I467" s="2"/>
-    </row>
-    <row r="468" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I468" s="2"/>
-    </row>
-    <row r="469" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I469" s="2"/>
-    </row>
-    <row r="470" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I470" s="2"/>
-    </row>
-    <row r="471" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I471" s="2"/>
-    </row>
-    <row r="472" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I472" s="2"/>
-    </row>
-    <row r="473" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I473" s="2"/>
-    </row>
-    <row r="474" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I474" s="2"/>
-    </row>
-    <row r="475" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I475" s="2"/>
-    </row>
-    <row r="476" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I476" s="2"/>
-    </row>
-    <row r="477" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I477" s="2"/>
-    </row>
-    <row r="478" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I478" s="2"/>
-      <c r="K478" s="3"/>
-    </row>
-    <row r="479" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I479" s="2"/>
-      <c r="K479" s="3"/>
-    </row>
-    <row r="480" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I480" s="2"/>
-      <c r="K480" s="3"/>
-    </row>
-    <row r="481" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I481" s="2"/>
-    </row>
-    <row r="482" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I482" s="2"/>
-    </row>
-    <row r="483" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I483" s="2"/>
-    </row>
-    <row r="484" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I484" s="2"/>
-      <c r="K484" s="3"/>
-    </row>
-    <row r="485" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I485" s="2"/>
-    </row>
-    <row r="486" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I486" s="2"/>
-      <c r="K486" s="3"/>
-    </row>
-    <row r="487" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I487" s="2"/>
-    </row>
-    <row r="488" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I488" s="2"/>
-      <c r="K488" s="3"/>
-    </row>
-    <row r="489" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I489" s="2"/>
-    </row>
-    <row r="490" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I490" s="2"/>
-    </row>
-    <row r="491" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I491" s="2"/>
-      <c r="K491" s="3"/>
-    </row>
-    <row r="492" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I492" s="2"/>
-    </row>
-    <row r="493" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I493" s="2"/>
-      <c r="K493" s="3"/>
-    </row>
-    <row r="494" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I494" s="2"/>
-    </row>
-    <row r="495" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I495" s="2"/>
-      <c r="K495" s="3"/>
-    </row>
-    <row r="496" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I496" s="2"/>
-    </row>
-    <row r="497" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I497" s="2"/>
-      <c r="K497" s="3"/>
-    </row>
-    <row r="498" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I498" s="2"/>
-    </row>
-    <row r="499" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I499" s="2"/>
-      <c r="K499" s="3"/>
-    </row>
-    <row r="500" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I500" s="2"/>
-    </row>
-    <row r="501" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I501" s="2"/>
-    </row>
-    <row r="502" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I502" s="2"/>
-    </row>
-    <row r="503" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I503" s="2"/>
-    </row>
-    <row r="504" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I504" s="2"/>
-    </row>
-    <row r="505" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I505" s="2"/>
-    </row>
-    <row r="506" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I506" s="2"/>
-    </row>
-    <row r="507" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I507" s="2"/>
-    </row>
-    <row r="508" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I508" s="2"/>
-    </row>
-    <row r="509" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I509" s="2"/>
-    </row>
-    <row r="510" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I510" s="2"/>
-    </row>
-    <row r="511" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I511" s="2"/>
-    </row>
-    <row r="512" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I512" s="2"/>
-    </row>
-    <row r="513" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I513" s="2"/>
-    </row>
-    <row r="514" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I514" s="2"/>
-    </row>
-    <row r="515" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I515" s="2"/>
-    </row>
-    <row r="516" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I516" s="2"/>
-    </row>
-    <row r="517" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I517" s="2"/>
-    </row>
-    <row r="518" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I518" s="2"/>
-    </row>
-    <row r="519" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I519" s="2"/>
-    </row>
-    <row r="520" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I520" s="2"/>
-    </row>
-    <row r="521" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I521" s="2"/>
-    </row>
-    <row r="522" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I522" s="2"/>
-    </row>
-    <row r="523" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I523" s="2"/>
-    </row>
-    <row r="524" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I524" s="2"/>
-    </row>
-    <row r="525" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I525" s="2"/>
-    </row>
-    <row r="526" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I526" s="2"/>
-    </row>
-    <row r="527" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I527" s="2"/>
-    </row>
-    <row r="528" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I528" s="2"/>
-    </row>
-    <row r="529" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I529" s="2"/>
-    </row>
-    <row r="530" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I530" s="2"/>
-    </row>
-    <row r="531" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I531" s="2"/>
-    </row>
-    <row r="532" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I532" s="2"/>
-    </row>
-    <row r="533" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I533" s="2"/>
-    </row>
-    <row r="534" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I534" s="2"/>
-    </row>
-    <row r="535" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I535" s="2"/>
-    </row>
-    <row r="536" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I536" s="2"/>
-    </row>
-    <row r="537" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I537" s="2"/>
-    </row>
-    <row r="538" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I538" s="2"/>
-    </row>
-    <row r="539" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I539" s="2"/>
-    </row>
-    <row r="540" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I540" s="2"/>
-    </row>
-    <row r="541" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I541" s="2"/>
-    </row>
-    <row r="542" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I542" s="2"/>
-    </row>
-    <row r="543" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I543" s="2"/>
-    </row>
-    <row r="544" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I544" s="2"/>
-    </row>
-    <row r="545" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I545" s="2"/>
-    </row>
-    <row r="546" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I546" s="2"/>
-    </row>
-    <row r="547" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I547" s="2"/>
-    </row>
-    <row r="548" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I548" s="2"/>
-    </row>
-    <row r="549" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I549" s="2"/>
-    </row>
-    <row r="550" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I550" s="2"/>
-    </row>
-    <row r="551" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I551" s="2"/>
-    </row>
-    <row r="552" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I552" s="2"/>
-    </row>
-    <row r="553" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I553" s="2"/>
-    </row>
-    <row r="554" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I554" s="2"/>
-    </row>
-    <row r="555" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I555" s="2"/>
-    </row>
-    <row r="556" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I556" s="2"/>
-    </row>
-    <row r="557" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I557" s="2"/>
-    </row>
-    <row r="558" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I558" s="2"/>
-    </row>
-    <row r="559" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I559" s="2"/>
-    </row>
-    <row r="560" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I560" s="2"/>
-    </row>
-    <row r="561" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I561" s="2"/>
-    </row>
-    <row r="562" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I562" s="2"/>
-    </row>
-    <row r="563" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I563" s="2"/>
-    </row>
-    <row r="564" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I564" s="2"/>
-    </row>
-    <row r="565" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I565" s="2"/>
-    </row>
-    <row r="566" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I566" s="2"/>
-    </row>
-    <row r="567" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I567" s="2"/>
-    </row>
-    <row r="568" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I568" s="2"/>
-    </row>
-    <row r="569" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I569" s="2"/>
-    </row>
-    <row r="570" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I570" s="2"/>
-    </row>
-    <row r="571" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I571" s="2"/>
-    </row>
-    <row r="572" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I572" s="2"/>
-    </row>
-    <row r="573" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I573" s="2"/>
+      <c r="T123" t="s">
+        <v>34</v>
+      </c>
+      <c r="W123" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V710">
-    <sortCondition ref="H1:H710"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X123">
+    <sortCondition ref="J1:J123"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
